--- a/CE05MOAS-GL319/Omaha_Cal_Info_CE05MOAS-GL319_00001.xlsx
+++ b/CE05MOAS-GL319/Omaha_Cal_Info_CE05MOAS-GL319_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12396" tabRatio="377" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12396" tabRatio="377" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="3" r:id="rId1"/>
@@ -268,7 +268,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -571,7 +571,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/CE05MOAS-GL319/Omaha_Cal_Info_CE05MOAS-GL319_00001.xlsx
+++ b/CE05MOAS-GL319/Omaha_Cal_Info_CE05MOAS-GL319_00001.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12396" tabRatio="377" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -31,7 +36,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$76</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$300</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -236,9 +241,6 @@
     <t>124°32.0615'W</t>
   </si>
   <si>
-    <t>Anhcor Launch Date</t>
-  </si>
-  <si>
     <t>Anchor Launch Time</t>
   </si>
   <si>
@@ -261,6 +263,9 @@
   </si>
   <si>
     <t>Mooring Serial Number</t>
+  </si>
+  <si>
+    <t>Anchor Launch Date</t>
   </si>
 </sst>
 </file>
@@ -379,7 +384,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,12 +406,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +497,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -521,7 +520,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -562,20 +561,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -657,6 +653,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -704,7 +703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,7 +738,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,7 +1067,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,10 +1096,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1131,13 +1130,13 @@
       <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="30">
         <v>41749</v>
       </c>
       <c r="E2" s="18">
         <v>0.7680555555555556</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="30">
         <v>41787</v>
       </c>
       <c r="G2" s="24" t="s">
@@ -1153,11 +1152,11 @@
         <v>37</v>
       </c>
       <c r="K2" s="16"/>
-      <c r="L2" s="33">
+      <c r="L2" s="31">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>44.716316666666664</v>
       </c>
-      <c r="M2" s="33">
+      <c r="M2" s="31">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-124.53435833333333</v>
       </c>
@@ -1173,7 +1172,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -1212,7 +1211,7 @@
     </row>
     <row r="2" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="22">
         <v>319</v>
@@ -1246,7 +1245,7 @@
     </row>
     <row r="4" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="22">
         <v>319</v>
@@ -1271,7 +1270,7 @@
     </row>
     <row r="5" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="22">
         <v>319</v>
@@ -1296,7 +1295,7 @@
     </row>
     <row r="6" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="22">
         <v>319</v>
@@ -1321,7 +1320,7 @@
     </row>
     <row r="7" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="22">
         <v>319</v>
@@ -1350,7 +1349,7 @@
       <c r="C8" s="22"/>
       <c r="D8" s="27"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="30"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -1359,7 +1358,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="22">
         <v>319</v>
@@ -1373,7 +1372,7 @@
       <c r="E9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="32">
         <v>0.61</v>
       </c>
       <c r="G9" s="26"/>
@@ -1389,7 +1388,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="22">
         <v>319</v>
@@ -1403,7 +1402,7 @@
       <c r="E10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="32">
         <v>0.61</v>
       </c>
       <c r="G10" s="26"/>
@@ -1419,7 +1418,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="22">
         <v>319</v>
@@ -1433,7 +1432,7 @@
       <c r="E11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="32">
         <v>0.61</v>
       </c>
       <c r="G11" s="26"/>
@@ -1449,7 +1448,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="22">
         <v>319</v>
@@ -1463,7 +1462,7 @@
       <c r="E12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="32">
         <v>0.61</v>
       </c>
       <c r="G12" s="26"/>
@@ -1497,7 +1496,7 @@
     </row>
     <row r="14" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="22">
         <v>319</v>
@@ -1531,7 +1530,7 @@
     </row>
     <row r="16" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="22">
         <v>319</v>
@@ -1565,7 +1564,7 @@
     </row>
     <row r="18" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="22">
         <v>319</v>

--- a/CE05MOAS-GL319/Omaha_Cal_Info_CE05MOAS-GL319_00001.xlsx
+++ b/CE05MOAS-GL319/Omaha_Cal_Info_CE05MOAS-GL319_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12396" tabRatio="377" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12390" tabRatio="377" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="3" r:id="rId1"/>
@@ -36,7 +31,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$76</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$300</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -703,7 +698,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -738,7 +733,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -953,23 +948,23 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -977,7 +972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -985,35 +980,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
     </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -1021,7 +1016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>23</v>
       </c>
@@ -1032,7 +1027,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
@@ -1043,7 +1038,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
@@ -1066,26 +1061,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.88671875"/>
-    <col min="2" max="2" width="39.44140625"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625"/>
-    <col min="7" max="7" width="18.6640625"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.6640625"/>
-    <col min="12" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="37.85546875"/>
+    <col min="2" max="2" width="39.42578125"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125"/>
+    <col min="7" max="7" width="18.7109375"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375"/>
+    <col min="12" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
@@ -1171,25 +1166,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625"/>
-    <col min="8" max="8" width="11.88671875"/>
-    <col min="9" max="9" width="14.44140625"/>
-    <col min="10" max="10" width="13.44140625"/>
-    <col min="11" max="1025" width="8.6640625"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125"/>
+    <col min="8" max="8" width="11.85546875"/>
+    <col min="9" max="9" width="14.42578125"/>
+    <col min="10" max="10" width="13.42578125"/>
+    <col min="11" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>44</v>
       </c>
@@ -1230,7 +1225,7 @@
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1243,7 +1238,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>41</v>
       </c>
@@ -1260,7 +1255,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="29">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
@@ -1268,7 +1263,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -1293,7 +1288,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>41</v>
       </c>
@@ -1310,7 +1305,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="29">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
@@ -1318,7 +1313,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
@@ -1343,7 +1338,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -1356,7 +1351,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>45</v>
       </c>
@@ -1386,7 +1381,7 @@
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
@@ -1416,7 +1411,7 @@
       <c r="O10" s="26"/>
       <c r="P10" s="26"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
@@ -1446,7 +1441,7 @@
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>45</v>
       </c>
@@ -1476,7 +1471,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -1494,7 +1489,7 @@
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
     </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>42</v>
       </c>
@@ -1515,7 +1510,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1528,7 +1523,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>46</v>
       </c>
@@ -1549,7 +1544,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1562,7 +1557,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>43</v>
       </c>
@@ -1583,7 +1578,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>

--- a/CE05MOAS-GL319/Omaha_Cal_Info_CE05MOAS-GL319_00001.xlsx
+++ b/CE05MOAS-GL319/Omaha_Cal_Info_CE05MOAS-GL319_00001.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12390" tabRatio="377" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12390" tabRatio="377"/>
   </bookViews>
   <sheets>
-    <sheet name="Read Me" sheetId="3" r:id="rId1"/>
-    <sheet name="Moorings" sheetId="1" r:id="rId2"/>
-    <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId3"/>
+    <sheet name="Moorings" sheetId="1" r:id="rId1"/>
+    <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Asset_Cal_Info!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$F$19</definedName>
     <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$19</definedName>
     <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$76</definedName>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Ref Des</t>
   </si>
@@ -72,132 +71,6 @@
   </si>
   <si>
     <t>Deployment Number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>File Name Instruction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:  Convention for naming this file is as follows:</t>
-    </r>
-  </si>
-  <si>
-    <t>Includes:</t>
-  </si>
-  <si>
-    <t>Guidance on data entry</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>NOTE:  Delete Guidance and Example prior to submission</t>
-  </si>
-  <si>
-    <t>_v#</t>
-  </si>
-  <si>
-    <t>0000#</t>
-  </si>
-  <si>
-    <t>Version number of this Excel workbook; e.g., v1, v2.</t>
-  </si>
-  <si>
-    <t>NOTE:  Delete Guidance prior to submission</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Asset Cal Info Spreadsheet Instructions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:  Convention for completing this spreadsheet appears embedded at the bottom of each column on the spreadsheet.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab names, column names, number formatting must be same format as this sample. This is read by code that is pretty finicky.</t>
-  </si>
-  <si>
-    <t>Readme must be deleted when done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE:  The use of DO NOT CHANGE as guidance in this template is not absolute.  There may be instances where a change is necessary; e.g., an instrument is added/deleted/changed.  Please be careful! </t>
-  </si>
-  <si>
-    <t>Omaha_Cal_Info_CP05MOAS_0000#_v#, where:</t>
-  </si>
-  <si>
-    <r>
-      <t>Unique identifier number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/deployment number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> of a particular CP05MOAS Glider set; e.g., 00001, 00002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gliders Spreadsheet Instructions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:  Convention for completing this spreadsheet is embedded in that spreadsheet.</t>
-    </r>
   </si>
   <si>
     <t>CC_scale_factor1</t>
@@ -270,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -295,37 +168,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -379,7 +225,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,24 +236,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -489,10 +317,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -504,68 +332,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -942,126 +759,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
@@ -1091,10 +791,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1115,43 +815,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="17">
-        <v>319</v>
-      </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10">
+        <v>319</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23">
         <v>41749</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="11">
         <v>0.7680555555555556</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="23">
         <v>41787</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="17">
+      <c r="G2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="10">
         <v>0</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="31">
+      <c r="J2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="24">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>44.716316666666664</v>
       </c>
-      <c r="M2" s="31">
+      <c r="M2" s="24">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-124.53435833333333</v>
       </c>
@@ -1162,11 +862,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -1189,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -1200,396 +900,396 @@
       <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="22">
-        <v>319</v>
-      </c>
-      <c r="C2" s="22">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="15">
+        <v>319</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
         <v>50147</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="22">
-        <v>319</v>
-      </c>
-      <c r="C4" s="22">
-        <v>1</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="15">
+        <v>319</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
         <v>2762</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="29">
+      <c r="E4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="22">
         <v>124</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="22">
-        <v>319</v>
-      </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="15">
+        <v>319</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20">
         <v>2762</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="29">
+      <c r="E5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="22">
         <v>700</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="22">
-        <v>319</v>
-      </c>
-      <c r="C6" s="22">
-        <v>1</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="15">
+        <v>319</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20">
         <v>2762</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="E6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="22">
         <v>1.0760000000000001</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="22">
-        <v>319</v>
-      </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="27">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15">
+        <v>319</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20">
         <v>2762</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="29">
+      <c r="E7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="22">
         <v>3.9E-2</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="22">
-        <v>319</v>
-      </c>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="27">
+      <c r="A9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="15">
+        <v>319</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20">
         <v>642443</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="32">
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="25">
         <v>0.61</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="22">
-        <v>319</v>
-      </c>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="27">
+      <c r="A10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="15">
+        <v>319</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
         <v>642443</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.61</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="32">
+      <c r="B11" s="15">
+        <v>319</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
+        <v>642443</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="25">
         <v>0.61</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="22">
-        <v>319</v>
-      </c>
-      <c r="C11" s="22">
-        <v>1</v>
-      </c>
-      <c r="D11" s="27">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="15">
+        <v>319</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20">
         <v>642443</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.61</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="15">
+        <v>319</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20">
+        <v>29</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="32">
-        <v>0.61</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="22">
-        <v>319</v>
-      </c>
-      <c r="C12" s="22">
-        <v>1</v>
-      </c>
-      <c r="D12" s="27">
-        <v>642443</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="32">
-        <v>0.61</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-    </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="22">
-        <v>319</v>
-      </c>
-      <c r="C14" s="22">
-        <v>1</v>
-      </c>
-      <c r="D14" s="27">
-        <v>29</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="22">
-        <v>319</v>
-      </c>
-      <c r="C16" s="22">
-        <v>1</v>
-      </c>
-      <c r="D16" s="27">
+      <c r="B16" s="15">
+        <v>319</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20">
         <v>9023</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="22">
-        <v>319</v>
-      </c>
-      <c r="C18" s="22">
-        <v>1</v>
-      </c>
-      <c r="D18" s="27">
-        <v>319</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="15">
+        <v>319</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <v>319</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
